--- a/data/long_dif/P18_2-Edad-long_dif.xlsx
+++ b/data/long_dif/P18_2-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>31,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>12,39%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29,3%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19,4%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 19,28</t>
+          <t>7,3; 20,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,09; 39,23</t>
+          <t>19,2; 38,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,56; 42,74</t>
+          <t>22,27; 43,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 18,11</t>
+          <t>8,72; 29,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,55; 40,18</t>
+          <t>6,97; 18,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,4; 31,43</t>
+          <t>22,47; 40,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,0; 16,36</t>
+          <t>12,47; 27,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,11; 36,68</t>
+          <t>14,2; 32,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,6; 34,26</t>
+          <t>8,69; 17,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23,21; 36,15</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19,66; 32,36</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13,55; 26,39</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,73%</t>
+          <t>49,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,17%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,56%</t>
+          <t>49,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>58,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>53,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,16%</t>
+          <t>42,78%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>51,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>54,24%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>52,35%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,73; 55,63</t>
+          <t>37,78; 55,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,1; 62,3</t>
+          <t>43,56; 64,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,21; 58,9</t>
+          <t>38,09; 59,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,47; 47,19</t>
+          <t>36,03; 64,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,07; 59,45</t>
+          <t>29,45; 47,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,34; 65,6</t>
+          <t>38,77; 58,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,12; 48,6</t>
+          <t>49,98; 66,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,94; 58,72</t>
+          <t>43,36; 65,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,0; 59,84</t>
+          <t>37,16; 49,58</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>43,78; 58,69</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>47,28; 60,67</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>42,24; 60,08</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>49,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>20,24%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>21,5%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>45,71%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>44,84%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19,11%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20,11%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28,25%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,37; 50,43</t>
+          <t>31,54; 49,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 29,15</t>
+          <t>11,17; 27,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,54; 30,37</t>
+          <t>11,18; 28,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42,18; 59,88</t>
+          <t>19,87; 45,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,07; 27,48</t>
+          <t>40,35; 58,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 28,53</t>
+          <t>13,12; 30,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,15; 53,34</t>
+          <t>15,17; 29,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,04; 25,34</t>
+          <t>16,13; 34,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,52; 26,46</t>
+          <t>38,0; 50,69</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14,19; 26,04</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,11; 25,86</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21,23; 36,12</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,03; 31,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,98; 40,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,84; 32,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 18,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,36; 45,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,65; 28,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,59; 22,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,5; 40,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 28,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>52,34%</t>
+          <t>35,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>53,65%</t>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32,87%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22,4%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>30,35%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,74; 44,81</t>
+          <t>14,07; 34,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,48; 54,17</t>
+          <t>21,2; 39,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,84; 65,99</t>
+          <t>15,57; 33,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,32; 55,69</t>
+          <t>22,05; 63,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,69; 54,43</t>
+          <t>6,85; 17,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,53; 59,6</t>
+          <t>27,8; 43,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,0; 47,82</t>
+          <t>15,85; 27,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,19; 52,0</t>
+          <t>13,56; 29,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47,15; 60,05</t>
+          <t>12,04; 23,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>27,01; 40,36</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17,81; 28,79</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>20,18; 47,36</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>34,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>44,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>54,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>46,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>41,98%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>50,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>40,26%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>44,8%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>53,8%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>44,62%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,87; 55,8</t>
+          <t>24,25; 43,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,59; 40,87</t>
+          <t>32,79; 56,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,22; 29,28</t>
+          <t>45,0; 67,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33,01; 49,1</t>
+          <t>23,9; 52,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,31; 25,16</t>
+          <t>38,36; 55,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,37; 33,59</t>
+          <t>37,21; 54,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>35,57; 50,39</t>
+          <t>44,71; 59,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,3; 33,17</t>
+          <t>40,59; 59,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,04; 28,89</t>
+          <t>33,36; 46,87</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>36,94; 52,53</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>47,66; 61,03</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>33,8; 53,45</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>41,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>43,0%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22,33%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>25,03%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,08; 25,48</t>
+          <t>33,17; 57,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,44; 47,59</t>
+          <t>15,79; 44,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,82; 40,72</t>
+          <t>14,64; 29,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,28; 23,04</t>
+          <t>11,3; 31,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,8; 43,54</t>
+          <t>33,29; 50,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,52; 28,85</t>
+          <t>12,91; 26,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,22; 22,74</t>
+          <t>19,96; 33,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>31,13; 42,96</t>
+          <t>21,29; 37,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,85; 32,74</t>
+          <t>36,03; 51,44</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16,33; 34,78</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>19,0; 29,1</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18,3; 32,4</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>41,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>52,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>42,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>48,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>48,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>41,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>44,68%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30,42; 52,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,55; 60,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,69; 48,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,07; 50,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>42,09; 55,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>42,65; 54,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>35,62; 48,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,18; 55,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,76; 50,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>33,45%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>18,02%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>35,55%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>27,01%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>30,51; 52,32</t>
+          <t>12,75; 24,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,92; 19,26</t>
+          <t>25,27; 44,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20,88; 36,49</t>
+          <t>23,88; 39,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>32,76; 46,52</t>
+          <t>21,91; 39,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,98; 19,43</t>
+          <t>13,52; 23,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,14; 33,59</t>
+          <t>30,85; 44,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,69; 47,15</t>
+          <t>18,58; 28,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,6; 17,48</t>
+          <t>20,56; 31,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,91; 33,15</t>
+          <t>14,52; 22,41</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>30,09; 42,39</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>22,83; 32,22</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>22,99; 33,86</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>42,45%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>52,71%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>41,74%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>53,36%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>42,01%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>48,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>48,86%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>46,95%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>42,23%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>50,42%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>45,36%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>50,02%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>10,94; 20,55</t>
+          <t>33,23; 51,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>30,47; 45,9</t>
+          <t>42,63; 61,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18,45; 29,02</t>
+          <t>34,65; 50,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,63; 26,33</t>
+          <t>44,25; 61,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>29,06; 41,21</t>
+          <t>35,31; 48,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,19; 30,76</t>
+          <t>41,59; 55,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,9; 21,51</t>
+          <t>43,07; 54,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>31,65; 41,3</t>
+          <t>40,29; 54,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>21,17; 28,71</t>
+          <t>36,71; 48,4</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>44,25; 55,93</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>40,29; 49,85</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>44,48; 55,22</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>53,52%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>45,12%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>41,04%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>49,43%</t>
+          <t>39,74%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>27,63%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>22,27%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>34,68; 49,02</t>
+          <t>31,39; 49,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>36,95; 52,11</t>
+          <t>9,12; 20,55</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>46,76; 60,41</t>
+          <t>20,64; 35,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>34,0; 46,35</t>
+          <t>11,63; 23,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>38,56; 51,96</t>
+          <t>33,31; 46,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>39,74; 51,64</t>
+          <t>10,21; 19,17</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>36,63; 45,76</t>
+          <t>22,88; 33,39</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>40,05; 49,77</t>
+          <t>21,26; 33,72</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>45,04; 53,82</t>
+          <t>34,18; 45,28</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>10,85; 18,2</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>23,72; 32,61</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>18,42; 27,08</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>35,82; 49,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,74; 23,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>17,96; 28,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>34,12; 46,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>15,31; 24,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>24,19; 34,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>36,57; 46,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>14,71; 22,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,35; 29,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>35,89%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>25,51%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>36,24%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>28,77%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,95; 22,36</t>
+          <t>11,54; 20,88</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>24,6; 39,79</t>
+          <t>29,32; 44,28</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>27,54; 40,58</t>
+          <t>19,05; 30,21</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10,97; 22,28</t>
+          <t>23,7; 45,08</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>25,73; 41,74</t>
+          <t>13,39; 23,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>22,6; 35,11</t>
+          <t>29,91; 42,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>12,48; 20,6</t>
+          <t>20,95; 30,81</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>27,29; 38,38</t>
+          <t>20,05; 31,78</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>26,86; 35,62</t>
+          <t>13,94; 20,66</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>31,6; 41,25</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>21,42; 28,98</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>24,14; 36,49</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>40,24%</t>
+          <t>45,32%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>39,69%</t>
+          <t>52,78%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>46,59%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>40,65%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>45,77%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>41,41%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>41,26%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>44,64%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>48,83%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>46,82%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>31,44; 48,1</t>
+          <t>35,19; 48,95</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>32,21; 48,75</t>
+          <t>38,11; 53,32</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>32,71; 46,14</t>
+          <t>46,73; 59,81</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>35,33; 50,66</t>
+          <t>37,24; 55,01</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>36,93; 54,08</t>
+          <t>34,54; 47,03</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>39,16; 52,76</t>
+          <t>37,64; 50,55</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>35,89; 47,44</t>
+          <t>39,81; 51,54</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>36,85; 48,2</t>
+          <t>40,24; 53,73</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>37,87; 47,87</t>
+          <t>36,6; 45,31</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>39,65; 49,82</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>44,63; 53,61</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>41,0; 52,05</t>
         </is>
       </c>
     </row>
@@ -2127,52 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>42,36%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>41,56%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>19,12%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>26,31%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>24,41%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>35,26; 53,94</t>
+          <t>35,65; 49,23</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>21,04; 35,74</t>
+          <t>13,23; 25,08</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>20,13; 32,64</t>
+          <t>17,96; 28,91</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>33,48; 49,37</t>
+          <t>15,61; 28,89</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>16,01; 28,95</t>
+          <t>34,57; 47,36</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>20,21; 32,25</t>
+          <t>15,03; 25,58</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>36,07; 48,62</t>
+          <t>24,42; 34,78</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>20,29; 30,35</t>
+          <t>21,19; 33,54</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>21,99; 30,86</t>
+          <t>37,25; 46,29</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>15,65; 22,98</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>22,71; 30,25</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>20,19; 28,59</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>13,82; 39,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>11,66; 27,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>18,86; 34,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>13,31; 28,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>24,04; 41,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>24,3; 39,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>15,0; 29,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>20,5; 33,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>23,77; 34,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>50,62%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
+          <t>27,4%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>15,83%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
           <t>33,66%</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>42,09%</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>44,82%</t>
-        </is>
-      </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>48,82%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>32,77%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>30,96%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>26,75%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>32,23; 51,96</t>
+          <t>11,84; 24,66</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>47,38; 70,13</t>
+          <t>25,46; 39,49</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>41,81; 60,26</t>
+          <t>27,61; 40,67</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>25,54; 42,32</t>
+          <t>19,28; 38,79</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>33,82; 53,39</t>
+          <t>10,96; 22,15</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>36,99; 54,88</t>
+          <t>25,53; 41,08</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>30,38; 42,91</t>
+          <t>22,91; 35,05</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>40,96; 56,77</t>
+          <t>18,65; 34,51</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>41,33; 54,67</t>
+          <t>12,4; 20,28</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>27,26; 37,97</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>26,52; 35,66</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>20,89; 33,82</t>
         </is>
       </c>
     </row>
@@ -2449,52 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>45,71%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>41,65%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>42,09%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>43,07%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>41,22%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>26,88; 46,26</t>
+          <t>30,98; 46,87</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>15,32; 33,74</t>
+          <t>33,02; 48,32</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>16,04; 33,7</t>
+          <t>33,81; 48,06</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>37,8; 54,99</t>
+          <t>26,85; 44,57</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>17,7; 35,25</t>
+          <t>37,51; 52,18</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>16,76; 29,89</t>
+          <t>36,12; 51,87</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>35,76; 49,47</t>
+          <t>39,42; 54,01</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>18,66; 31,82</t>
+          <t>36,57; 55,22</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>18,54; 29,07</t>
+          <t>36,07; 47,24</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>37,11; 48,86</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>38,16; 48,25</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>34,37; 47,6</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>44,18%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>41,89%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>25,14%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>25,97%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>32,03%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>14,98; 21,48</t>
+          <t>35,54; 54,22</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>26,93; 34,62</t>
+          <t>20,67; 35,08</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>25,27; 31,49</t>
+          <t>19,83; 32,88</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>14,46; 19,46</t>
+          <t>27,51; 45,37</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>31,53; 37,96</t>
+          <t>32,18; 46,81</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>22,84; 27,91</t>
+          <t>16,42; 30,79</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>15,17; 19,11</t>
+          <t>19,89; 32,82</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>30,27; 35,14</t>
+          <t>19,24; 38,2</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>24,53; 28,8</t>
+          <t>36,79; 48,5</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>20,7; 30,17</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>21,59; 30,5</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>25,83; 38,79</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>41,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>48,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>48,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>46,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>48,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>36,51; 44,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>44,53; 52,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>44,23; 51,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>37,42; 43,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>42,8; 49,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>45,91; 51,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>38,5; 43,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>44,59; 50,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>46,12; 50,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>41,37%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>21,56%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>27,74%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>29,47%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>37,39; 46,19</t>
+          <t>14,18; 38,06</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,33</t>
+          <t>12,47; 27,35</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>20,99; 27,29</t>
+          <t>18,87; 33,8</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>39,5; 46,23</t>
+          <t>14,45; 34,99</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>17,14; 22,45</t>
+          <t>14,44; 30,9</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>23,61; 28,56</t>
+          <t>25,82; 42,02</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>39,46; 44,37</t>
+          <t>25,03; 40,74</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>18,3; 22,68</t>
+          <t>17,22; 34,91</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>23,02; 26,89</t>
+          <t>15,73; 29,29</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>22,48; 34,32</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>24,38; 35,37</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>18,49; 32,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>39,68%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>56,53%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>50,65%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>53,93%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>34,35%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>40,49%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>43,23%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>48,23%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>36,62%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>47,22%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>46,45%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>50,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>29,89; 49,32</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>45,38; 67,8</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>41,05; 59,34</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>42,28; 65,6</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>26,58; 41,92</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>32,19; 49,29</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>35,67; 52,21</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>38,33; 58,61</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>30,86; 43,36</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>40,47; 54,54</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>41,18; 53,37</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>42,6; 58,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>37,84%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>24,31%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>23,89%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>22,49%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>44,78%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>25,56%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>24,21%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>26,33%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>41,83%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>25,04%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>24,07%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>24,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>28,82; 47,28</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>16,51; 34,29</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>16,52; 33,19</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 33,7</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>36,66; 52,85</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 34,88</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>18,08; 30,89</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>18,71; 35,29</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>35,36; 47,41</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>19,66; 31,46</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>19,43; 29,55</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>18,26; 30,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>17,94%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>30,38%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>28,05%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>28,71%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>16,6%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>34,77%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>32,64%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>26,65%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>26,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>15,16; 21,27</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>26,86; 34,2</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>24,87; 31,3</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>24,03; 36,44</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>14,33; 19,23</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>31,86; 37,95</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>22,88; 27,94</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>21,5; 27,63</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>15,35; 19,38</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>30,52; 35,21</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>24,64; 28,72</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>23,84; 30,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>40,65%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>48,84%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>48,36%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>46,86%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>40,9%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>45,15%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>48,64%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>48,63%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>40,78%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>46,94%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>48,5%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>47,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>37,04; 44,29</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>44,75; 52,77</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>45,05; 52,17</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>41,87; 51,92</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>37,84; 44,11</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>41,96; 48,39</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>45,7; 51,38</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>44,82; 52,34</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>38,48; 43,3</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>44,38; 49,56</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>46,12; 50,79</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>44,56; 50,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>41,41%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>20,78%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>23,59%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>24,43%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>42,5%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>27,0%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>41,97%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>25,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>37,61; 45,55</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>18,03; 25,56</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>20,88; 26,96</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>20,58; 28,47</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>39,3; 45,53</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>17,29; 23,2</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>23,44; 28,55</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>23,94; 30,91</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>39,64; 44,64</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>18,29; 22,81</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>22,98; 26,74</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>23,18; 28,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
